--- a/biology/Zoologie/Isolobodontinae/Isolobodontinae.xlsx
+++ b/biology/Zoologie/Isolobodontinae/Isolobodontinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isolobodontinae forment une sous-famille de Rongeurs de la famille des Capromyidae. ils sont désormais tous éteints.
 Cette sous-famille a été décrite pour la première fois en 1989 par le zoologiste et biologiste américain Charles Arthur Woods.
@@ -512,13 +524,15 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (17 janv. 2013)[1] et ITIS      (17 janv. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (17 janv. 2013) et ITIS      (17 janv. 2013) :
 genre Isolobodon J. A. Allen, 1916
 † Isolobodon montanus (Miller, 1922)
 † Isolobodon portoricensis J. A. Allen, 1916
-Selon Paleobiology Database                   (17 janv. 2013)[3] :
+Selon Paleobiology Database                   (17 janv. 2013) :
 genre Zazamys MacPhee et Iturralde-Vinent, 1995
 † Zazamys veronicae MacPhee and Iturralde-Vinent, 1995 - espèce fossile type</t>
         </is>
